--- a/cta策略/result/螺纹/MACD_1d/wfo_最优两组参数的绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/wfo_最优两组参数的绩效.xlsx
@@ -420,16 +420,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07634136895848709</v>
+        <v>0.0536981638123557</v>
       </c>
       <c r="D2">
-        <v>0.1760576767961933</v>
+        <v>0.1269260818294443</v>
       </c>
       <c r="E2">
-        <v>0.2265987553949176</v>
+        <v>0.354012184571296</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,16 +440,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.120259539800915</v>
+        <v>0.0536981638123557</v>
       </c>
       <c r="D3">
-        <v>0.3892678322126832</v>
+        <v>0.1269260818294443</v>
       </c>
       <c r="E3">
-        <v>0.4388678026018811</v>
+        <v>0.354012184571296</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
